--- a/Mẫu bàn giao thiết bị trước khi nghỉ việc.xlsx
+++ b/Mẫu bàn giao thiết bị trước khi nghỉ việc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNETGPS.VN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,17 +257,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,24 +279,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,22 +319,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1214438</xdr:colOff>
+      <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D728FA79-C245-458C-8994-01B596819A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D728FA79-C245-458C-8994-01B596819A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -350,8 +350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95251" y="95249"/>
-          <a:ext cx="1726406" cy="440532"/>
+          <a:off x="66676" y="57150"/>
+          <a:ext cx="1828799" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,42 +644,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -790,54 +790,54 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -856,482 +856,482 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7">
+      <c r="B16" s="14"/>
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7">
+      <c r="B17" s="14"/>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="B18" s="14"/>
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="B19" s="14"/>
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7">
+      <c r="B20" s="14"/>
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7">
+      <c r="B21" s="14"/>
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7">
+      <c r="B22" s="14"/>
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7">
+      <c r="B23" s="14"/>
+      <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7">
+      <c r="B24" s="14"/>
+      <c r="C24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7">
+      <c r="B25" s="14"/>
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7">
+      <c r="B26" s="14"/>
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
+      <c r="B27" s="14"/>
+      <c r="C27" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7">
+      <c r="B28" s="14"/>
+      <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7">
+      <c r="B30" s="14"/>
+      <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7">
+      <c r="B31" s="14"/>
+      <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="10"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7">
+      <c r="B32" s="14"/>
+      <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7">
+      <c r="B33" s="14"/>
+      <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7">
+      <c r="B34" s="14"/>
+      <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,14 +1393,14 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="41" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1432,10 +1432,10 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="14"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -1520,10 +1520,10 @@
     </row>
     <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="12"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1532,14 +1532,100 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="12"/>
+      <c r="M47" s="4"/>
       <c r="N47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="I1:N1"/>
@@ -1564,92 +1650,6 @@
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
   </mergeCells>
   <pageMargins left="1.3779527559055118" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
